--- a/Legales y Administrativos/Uso de información/15-06-2021 fuentes_de_información.xlsx
+++ b/Legales y Administrativos/Uso de información/15-06-2021 fuentes_de_información.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\Legales y Administrativos\Uso de información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\Legales y Administrativos\Uso de información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135D05D7-AA2E-40B3-9E2D-16B364F84E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C632F9-F7C8-43E7-8AF4-5087D16D7868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8E6A4C0C-EE83-449B-9D0E-030A6AB2ED3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8E6A4C0C-EE83-449B-9D0E-030A6AB2ED3F}"/>
   </bookViews>
   <sheets>
     <sheet name="MACRO" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
   <si>
     <t xml:space="preserve">Red Chilena Contra la Violencia Hacia las Mujeres - SERNAMEG - Mesa Intersectorial </t>
   </si>
@@ -380,6 +380,93 @@
   </si>
   <si>
     <t>Estadísticas</t>
+  </si>
+  <si>
+    <t>Observatorio contra el acoso en Chile</t>
+  </si>
+  <si>
+    <t>Mujeres - Violencia</t>
+  </si>
+  <si>
+    <t>http://cead.spd.gov.cl/estudios-y-encuestas/</t>
+  </si>
+  <si>
+    <t>Datos macro: Índice Global de la Brecha de Género</t>
+  </si>
+  <si>
+    <t>https://datosmacro.expansion.com/demografia/indice-brecha-genero-global</t>
+  </si>
+  <si>
+    <t>Sondeos INJUV</t>
+  </si>
+  <si>
+    <t>https://www.injuv.gob.cl/sondeos</t>
+  </si>
+  <si>
+    <t>https://www.ocac.cl/</t>
+  </si>
+  <si>
+    <t>Balance Gestión Integral</t>
+  </si>
+  <si>
+    <t>Ministerio de la Mujer</t>
+  </si>
+  <si>
+    <t>Ministerio de Desarrollo Social y Familia</t>
+  </si>
+  <si>
+    <t>Encuesta Nacional Urbana de Seguridad Ciudadana – ENUSC</t>
+  </si>
+  <si>
+    <t>Centro de Estudios y Análisis del Delito (CEAD)</t>
+  </si>
+  <si>
+    <t>https://www.sernameg.gob.cl/</t>
+  </si>
+  <si>
+    <t>https://www.cnc.cl/oci/</t>
+  </si>
+  <si>
+    <t>Observatorio del Comercio Ilícito</t>
+  </si>
+  <si>
+    <t>Cámara Nacional de Comercio, Servicios y Turismo de Chile</t>
+  </si>
+  <si>
+    <t>https://www.cmfchile.cl/portal/principal/613/w3-channel.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comisión para el Mercado Financiero (CMF) </t>
+  </si>
+  <si>
+    <t>https://www.anac.cl/category/estudio-de-mercado/</t>
+  </si>
+  <si>
+    <t>Asociación Nacional Automotriz de Chile (ANAC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comité de Franquicias: Directorio de Empresas </t>
+  </si>
+  <si>
+    <t>https://www.franquiciasccs.cl/directorio-de-empresas/</t>
+  </si>
+  <si>
+    <t>Cámara de Comercio de Santiago</t>
+  </si>
+  <si>
+    <t>https://www.best-cmf.cl/best-cmf/#!/welcome</t>
+  </si>
+  <si>
+    <t>Comisión para el Mercado Financiero (CMF)</t>
+  </si>
+  <si>
+    <t>Bases Estadísticas en Series Temporales (BEST)</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/equities/smu-income-statement</t>
+  </si>
+  <si>
+    <t>Investing.com</t>
   </si>
 </sst>
 </file>
@@ -644,80 +731,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -833,6 +846,24 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -871,6 +902,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -886,18 +973,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:I37" totalsRowShown="0">
-  <autoFilter ref="A2:I37" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:I45" totalsRowShown="0">
+  <autoFilter ref="A2:I45" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{56977323-CFE5-4D6B-ACB3-A28D5DE6182A}" name="Columna1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{381989C0-5BB3-48C8-96EB-FA1A36684E79}" name="ID_fuentes" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{381989C0-5BB3-48C8-96EB-FA1A36684E79}" name="ID_fuentes" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{21CEDDCF-644F-47E5-B1DF-8707A8277D29}" name="Columna3"/>
-    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="25" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{12438A61-C4F6-4FB9-B8F6-3731744A8EE6}" name="Columna2" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{093BACB0-33F1-409F-8BD9-4578418FD469}" name="Fecha revisión" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="22" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{12438A61-C4F6-4FB9-B8F6-3731744A8EE6}" name="Columna2" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{093BACB0-33F1-409F-8BD9-4578418FD469}" name="Fecha revisión" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,14 +994,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CE13D1B-3124-4FFF-A6E6-9A0CE65F0C40}" name="Tabla13" displayName="Tabla13" ref="A2:H43" totalsRowShown="0">
   <autoFilter ref="A2:H43" xr:uid="{3CE13D1B-3124-4FFF-A6E6-9A0CE65F0C40}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{93CFC4C8-622F-4979-9E5F-3AC4A6CA4A8A}" name="Columna1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{6FF4FF41-DD08-473A-834F-8A22300836D0}" name="Data" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{EDEFDCB3-30F2-4566-9ABA-7C8EAE0F065B}" name="Fuentes" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{A3662FC1-E840-4595-A898-3D83EE1ED6C9}" name="Uso de datos" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{DC76A3A3-FD1F-4B42-AB8A-82877AD10545}" name="Columna3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{3F33B766-2353-483C-9DA4-C005106E7518}" name="Links" dataDxfId="18" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{B584331A-7CD4-4D7E-9402-2B255A19F372}" name="Colección" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{E0728EBE-8C35-4558-9F5E-8FD6A62DF25E}" name="Tema" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{93CFC4C8-622F-4979-9E5F-3AC4A6CA4A8A}" name="Columna1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{6FF4FF41-DD08-473A-834F-8A22300836D0}" name="Data" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{EDEFDCB3-30F2-4566-9ABA-7C8EAE0F065B}" name="Fuentes" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{A3662FC1-E840-4595-A898-3D83EE1ED6C9}" name="Uso de datos" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{DC76A3A3-FD1F-4B42-AB8A-82877AD10545}" name="Columna3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{3F33B766-2353-483C-9DA4-C005106E7518}" name="Links" dataDxfId="14" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{B584331A-7CD4-4D7E-9402-2B255A19F372}" name="Colección" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{E0728EBE-8C35-4558-9F5E-8FD6A62DF25E}" name="Tema" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,16 +1304,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB270F-33D0-487D-A6E1-B046741FF077}">
-  <dimension ref="A2:I37"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.54296875" style="3" customWidth="1"/>
     <col min="5" max="5" width="38.54296875" style="3" bestFit="1" customWidth="1"/>
@@ -1267,7 +1354,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1288,7 +1375,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1314,132 +1401,157 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="I5" s="14">
         <v>44330</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="I6" s="14">
         <v>44330</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I7" s="14">
         <v>44330</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13">
-        <v>4</v>
+      <c r="C8" s="12">
+        <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I8" s="14">
         <v>44330</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
       <c r="C9" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="14">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
       <c r="C10" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I10" s="14">
         <v>44330</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="14">
         <v>44330</v>
@@ -1447,39 +1559,42 @@
     </row>
     <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I12" s="14">
         <v>44330</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="I13" s="14">
         <v>44330</v>
@@ -1487,425 +1602,686 @@
     </row>
     <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="14">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="I14" s="14">
-        <v>44330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E15"/>
       <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="I15" s="14">
         <v>44343</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
       <c r="C16" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I16" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
       <c r="C17" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I17" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
       <c r="C18" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18"/>
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I18" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
       <c r="C19" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E19"/>
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I19" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
       <c r="C20" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>93</v>
+      <c r="G20" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="I20" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
       <c r="C21" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>72</v>
+      <c r="G21" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="I21" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
       <c r="C22" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I22" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
       <c r="C23" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="I23" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
       <c r="C24" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
       <c r="C25" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="I25" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
       <c r="C26" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26"/>
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="I26" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
       <c r="C27" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="I27" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
       <c r="C28" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>61</v>
+      <c r="G28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="I28" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
       <c r="C29" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>98</v>
+      <c r="G29" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="I29" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
       <c r="C30" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30"/>
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="I30" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
       <c r="C31" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E31"/>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I31" s="14">
         <v>44343</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
       <c r="C32" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I32" s="14">
-        <v>44343</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="12">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
       <c r="E33"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="E34"/>
+      <c r="I33" s="14">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="12">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="4:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="14">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="14">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="14">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>126</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I37" s="14">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="14">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" s="14">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="14">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="14">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="14">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="14">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="14">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="14">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F36 G15:G35">
+  <conditionalFormatting sqref="G14:G32 F3:F33">
     <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="autorización ">
       <formula>NOT(ISERROR(SEARCH("autorización ",F3)))</formula>
     </cfRule>
@@ -1920,39 +2296,49 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{F2F2D100-ABD6-4BDE-9B37-2AC3DBBC474E}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{F2F2D100-ABD6-4BDE-9B37-2AC3DBBC474E}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{945D987E-CD35-4A11-823E-93FFE9400924}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{1EDEE09C-80CA-47CF-945A-CABB3FB9D998}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{E66183EE-B25F-40E1-AE42-064ED48F980E}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{34C3E9C5-69A6-4888-90E6-F3F585DEA7E3}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{C7BE2F1D-5A2F-4F24-8177-480E4001AFDE}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{D0052E84-4C4D-48E8-92CE-5D27AE8589EA}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{D7C2CE0B-7162-4A22-8606-08E77F2199AC}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{252471BB-CDD6-4BE6-B778-DF5DBE7340C5}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{FFFF85CD-B62B-4107-A8C6-D3BC05F03652}"/>
-    <hyperlink ref="G28" r:id="rId11" location="datosabiertos " xr:uid="{FBD381E0-F15D-45D0-A9A2-ABADED8478D3}"/>
-    <hyperlink ref="G16" r:id="rId12" xr:uid="{EE457F07-2117-444C-B205-14332D5F3C56}"/>
-    <hyperlink ref="G26" r:id="rId13" xr:uid="{1B3D93D2-7F41-4D13-9B09-9098660363F0}"/>
-    <hyperlink ref="G25" r:id="rId14" xr:uid="{E13D4492-69D9-4DF2-A487-DD6D6C39E80A}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{764ED322-69D1-4781-A5C8-D9136DB2F2E6}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{D894B7EE-79FF-4850-82D3-B99DED78ECA5}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{4542365D-8115-4E00-955A-439E42AD01E9}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{DA45A962-CD76-4949-BD3F-D577951A3A48}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{16E09A90-C43F-4CBB-9815-CC7AB0076BCE}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{A5391AB0-8393-4270-83FE-167C806845A0}"/>
-    <hyperlink ref="G21" r:id="rId21" xr:uid="{74207EBC-8240-4903-82DE-83AABD7D239E}"/>
-    <hyperlink ref="G32" r:id="rId22" location="/bases" xr:uid="{52D5181C-8315-4E99-A663-B7B4219CA3A0}"/>
-    <hyperlink ref="G31" r:id="rId23" xr:uid="{C2C87C81-8B30-412A-AF37-C2383BF75D50}"/>
-    <hyperlink ref="G30" r:id="rId24" xr:uid="{CB29DEB1-6FC9-4290-834E-67546F9FD2D7}"/>
-    <hyperlink ref="G23" r:id="rId25" xr:uid="{2D7AE669-F89C-4687-9C4B-F89CC7EA86A6}"/>
-    <hyperlink ref="G24" r:id="rId26" location="/busquedaPublica" xr:uid="{F5F05F6E-B3BD-4679-98A5-7CA64F5348F1}"/>
-    <hyperlink ref="G29" r:id="rId27" xr:uid="{0C65FB89-B9A1-4450-974A-611FBB8FD52E}"/>
-    <hyperlink ref="G27" r:id="rId28" xr:uid="{E17609EF-C3EF-4FB0-95A6-F30375D5A928}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{E66183EE-B25F-40E1-AE42-064ED48F980E}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{34C3E9C5-69A6-4888-90E6-F3F585DEA7E3}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{C7BE2F1D-5A2F-4F24-8177-480E4001AFDE}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{D0052E84-4C4D-48E8-92CE-5D27AE8589EA}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{D7C2CE0B-7162-4A22-8606-08E77F2199AC}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{252471BB-CDD6-4BE6-B778-DF5DBE7340C5}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{FFFF85CD-B62B-4107-A8C6-D3BC05F03652}"/>
+    <hyperlink ref="G27" r:id="rId11" location="datosabiertos " xr:uid="{FBD381E0-F15D-45D0-A9A2-ABADED8478D3}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{EE457F07-2117-444C-B205-14332D5F3C56}"/>
+    <hyperlink ref="G25" r:id="rId13" xr:uid="{1B3D93D2-7F41-4D13-9B09-9098660363F0}"/>
+    <hyperlink ref="G24" r:id="rId14" xr:uid="{E13D4492-69D9-4DF2-A487-DD6D6C39E80A}"/>
+    <hyperlink ref="G14" r:id="rId15" xr:uid="{764ED322-69D1-4781-A5C8-D9136DB2F2E6}"/>
+    <hyperlink ref="G16" r:id="rId16" xr:uid="{D894B7EE-79FF-4850-82D3-B99DED78ECA5}"/>
+    <hyperlink ref="G17" r:id="rId17" xr:uid="{4542365D-8115-4E00-955A-439E42AD01E9}"/>
+    <hyperlink ref="G18" r:id="rId18" xr:uid="{DA45A962-CD76-4949-BD3F-D577951A3A48}"/>
+    <hyperlink ref="G19" r:id="rId19" xr:uid="{16E09A90-C43F-4CBB-9815-CC7AB0076BCE}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{A5391AB0-8393-4270-83FE-167C806845A0}"/>
+    <hyperlink ref="G20" r:id="rId21" xr:uid="{74207EBC-8240-4903-82DE-83AABD7D239E}"/>
+    <hyperlink ref="G31" r:id="rId22" location="/bases" xr:uid="{52D5181C-8315-4E99-A663-B7B4219CA3A0}"/>
+    <hyperlink ref="G30" r:id="rId23" xr:uid="{C2C87C81-8B30-412A-AF37-C2383BF75D50}"/>
+    <hyperlink ref="G29" r:id="rId24" xr:uid="{CB29DEB1-6FC9-4290-834E-67546F9FD2D7}"/>
+    <hyperlink ref="G22" r:id="rId25" xr:uid="{2D7AE669-F89C-4687-9C4B-F89CC7EA86A6}"/>
+    <hyperlink ref="G23" r:id="rId26" location="/busquedaPublica" xr:uid="{F5F05F6E-B3BD-4679-98A5-7CA64F5348F1}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{0C65FB89-B9A1-4450-974A-611FBB8FD52E}"/>
+    <hyperlink ref="G26" r:id="rId28" xr:uid="{E17609EF-C3EF-4FB0-95A6-F30375D5A928}"/>
+    <hyperlink ref="G37" r:id="rId29" xr:uid="{D9DC87F3-4B07-4DF2-A73E-E5FDFEC54A5E}"/>
+    <hyperlink ref="G38" r:id="rId30" xr:uid="{29824728-3DF1-4A4E-B1C8-50298EFAC74A}"/>
+    <hyperlink ref="G39" r:id="rId31" xr:uid="{E2CC2A15-94F5-402B-88F0-B70C363F89A3}"/>
+    <hyperlink ref="G36" r:id="rId32" xr:uid="{3E5BE5DD-0429-42BD-8DD2-E59DE59D4897}"/>
+    <hyperlink ref="G40" r:id="rId33" xr:uid="{63251F0E-9DB8-4EE1-AE02-F495085406F2}"/>
+    <hyperlink ref="G41" r:id="rId34" xr:uid="{727D34B8-FD51-4F25-B03A-811A2865C935}"/>
+    <hyperlink ref="G42" r:id="rId35" xr:uid="{A03A7F1A-309C-426E-A8B4-22394A27208E}"/>
+    <hyperlink ref="G43" r:id="rId36" xr:uid="{D99E08E4-24F8-472A-9ECA-281E82ABF490}"/>
+    <hyperlink ref="G44" r:id="rId37" location="!/welcome" xr:uid="{DF103ABA-5DAE-4AC4-A90F-90DC2E3AB3CC}"/>
+    <hyperlink ref="G45" r:id="rId38" xr:uid="{6EEC7001-F5DC-4D82-9DB8-B815D23F4DA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>
